--- a/NovaCrixas2017.xlsx
+++ b/NovaCrixas2017.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="132" windowWidth="20112" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contagem total " sheetId="1" r:id="rId1"/>
     <sheet name="analise" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -457,10 +458,10 @@
     <t>Junho</t>
   </si>
   <si>
-    <t>Mês</t>
+    <t>Ponto</t>
   </si>
   <si>
-    <t>Ponto</t>
+    <t>Periodo</t>
   </si>
 </sst>
 </file>
@@ -500,14 +501,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,111 +831,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="3">
+      <c r="B1" s="5">
         <v>42795</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="3">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="5">
         <v>42887</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B3" s="1">
@@ -1011,7 +1012,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B4" s="1">
@@ -1088,7 +1089,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="1">
@@ -1165,7 +1166,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="1">
@@ -1242,7 +1243,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="1">
@@ -1319,7 +1320,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="1">
@@ -1396,7 +1397,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="1">
@@ -1473,7 +1474,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B10" s="1">
@@ -1550,7 +1551,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B11" s="1">
@@ -1627,7 +1628,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="1">
@@ -1704,7 +1705,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="1">
@@ -1781,7 +1782,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="1">
@@ -1858,7 +1859,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B15" s="1">
@@ -1935,7 +1936,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="1">
@@ -2012,7 +2013,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B17">
@@ -2089,7 +2090,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B18">
@@ -2166,7 +2167,7 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B19">
@@ -2243,7 +2244,7 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B20">
@@ -2320,7 +2321,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B21">
@@ -2397,7 +2398,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B22">
@@ -2474,7 +2475,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B23">
@@ -2551,7 +2552,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B24">
@@ -2628,7 +2629,7 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B25">
@@ -2705,7 +2706,7 @@
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B26">
@@ -2782,7 +2783,7 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B27">
@@ -2859,7 +2860,7 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B28">
@@ -2936,7 +2937,7 @@
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B29">
@@ -3013,7 +3014,7 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B30">
@@ -3090,7 +3091,7 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B31">
@@ -3167,7 +3168,7 @@
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B32">
@@ -3244,7 +3245,7 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B33">
@@ -3321,7 +3322,7 @@
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B34">
@@ -3398,7 +3399,7 @@
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B35">
@@ -3475,7 +3476,7 @@
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B36">
@@ -3552,7 +3553,7 @@
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B37">
@@ -3629,7 +3630,7 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B38">
@@ -3706,7 +3707,7 @@
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B39">
@@ -3783,7 +3784,7 @@
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B40">
@@ -3860,7 +3861,7 @@
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B41">
@@ -3937,7 +3938,7 @@
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B42">
@@ -4014,7 +4015,7 @@
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B43">
@@ -4091,7 +4092,7 @@
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B44">
@@ -4168,7 +4169,7 @@
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B45">
@@ -4245,7 +4246,7 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B46">
@@ -4322,7 +4323,7 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B47">
@@ -4399,7 +4400,7 @@
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B48">
@@ -4476,7 +4477,7 @@
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B49">
@@ -4553,7 +4554,7 @@
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B50">
@@ -4630,7 +4631,7 @@
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B51">
@@ -4707,7 +4708,7 @@
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B52">
@@ -4784,7 +4785,7 @@
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B53">
@@ -4861,7 +4862,7 @@
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B54">
@@ -4938,7 +4939,7 @@
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B55">
@@ -5015,7 +5016,7 @@
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -5092,7 +5093,7 @@
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B57">
@@ -5169,7 +5170,7 @@
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B58">
@@ -5246,7 +5247,7 @@
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B59">
@@ -5323,7 +5324,7 @@
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B60">
@@ -5400,7 +5401,7 @@
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B61">
@@ -5477,7 +5478,7 @@
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B62">
@@ -5554,7 +5555,7 @@
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B63">
@@ -5631,7 +5632,7 @@
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B64">
@@ -5708,7 +5709,7 @@
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B65">
@@ -5785,7 +5786,7 @@
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B66">
@@ -5862,7 +5863,7 @@
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B67">
@@ -5939,7 +5940,7 @@
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B68">
@@ -6016,7 +6017,7 @@
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B69">
@@ -6093,7 +6094,7 @@
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B70">
@@ -6170,7 +6171,7 @@
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B71">
@@ -6247,7 +6248,7 @@
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B72">
@@ -6324,7 +6325,7 @@
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B73">
@@ -6401,7 +6402,7 @@
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B74">
@@ -6478,7 +6479,7 @@
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B75">
@@ -6555,7 +6556,7 @@
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B76">
@@ -6632,7 +6633,7 @@
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B77">
@@ -6709,7 +6710,7 @@
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B78">
@@ -6786,7 +6787,7 @@
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B79">
@@ -6863,7 +6864,7 @@
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B80">
@@ -6940,7 +6941,7 @@
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B81">
@@ -7017,7 +7018,7 @@
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B82">
@@ -7094,7 +7095,7 @@
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B83">
@@ -7171,7 +7172,7 @@
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B84">
@@ -7248,7 +7249,7 @@
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B85">
@@ -7325,7 +7326,7 @@
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B86">
@@ -7402,7 +7403,7 @@
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B87">
@@ -7479,7 +7480,7 @@
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B88">
@@ -7556,7 +7557,7 @@
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B89">
@@ -7633,7 +7634,7 @@
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B90">
@@ -7710,7 +7711,7 @@
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B91">
@@ -7787,7 +7788,7 @@
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B92">
@@ -7864,7 +7865,7 @@
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B93">
@@ -7941,7 +7942,7 @@
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B94">
@@ -8018,7 +8019,7 @@
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B95">
@@ -8095,7 +8096,7 @@
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B96">
@@ -8172,7 +8173,7 @@
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B97">
@@ -8249,7 +8250,7 @@
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B98">
@@ -8326,7 +8327,7 @@
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B99">
@@ -8403,7 +8404,7 @@
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B100">
@@ -8480,7 +8481,7 @@
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B101">
@@ -8557,7 +8558,7 @@
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B102">
@@ -8634,7 +8635,7 @@
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B103">
@@ -8711,7 +8712,7 @@
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B104">
@@ -8788,7 +8789,7 @@
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B105">
@@ -8865,7 +8866,7 @@
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B106">
@@ -8942,7 +8943,7 @@
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B107">
@@ -9019,7 +9020,7 @@
       </c>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B108">
@@ -9096,7 +9097,7 @@
       </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B109">
@@ -9173,7 +9174,7 @@
       </c>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B110">
@@ -9250,7 +9251,7 @@
       </c>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B111">
@@ -9327,7 +9328,7 @@
       </c>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B112">
@@ -9404,7 +9405,7 @@
       </c>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B113">
@@ -9481,7 +9482,7 @@
       </c>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B114">
@@ -9558,7 +9559,7 @@
       </c>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B115">
@@ -9635,7 +9636,7 @@
       </c>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B116">
@@ -9712,7 +9713,7 @@
       </c>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B117">
@@ -9789,7 +9790,7 @@
       </c>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B118">
@@ -9866,7 +9867,7 @@
       </c>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B119">
@@ -9943,7 +9944,7 @@
       </c>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B120">
@@ -10097,7 +10098,7 @@
       </c>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B122">
@@ -10174,7 +10175,7 @@
       </c>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B123">
@@ -10268,387 +10269,387 @@
   <dimension ref="A1:DS25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="M1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AA1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AA1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AP1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AR1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AS1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AT1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AU1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AV1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AW1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AX1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AY1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BA1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BB1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BC1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BD1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BE1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BF1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BG1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BH1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BK1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BL1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BM1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BN1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BO1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BP1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BQ1" s="5" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="BR1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="BS1" s="5" t="s">
+      <c r="BS1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="BT1" s="5" t="s">
+      <c r="BT1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="BU1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="BV1" s="5" t="s">
+      <c r="BV1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BW1" s="5" t="s">
+      <c r="BW1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="BX1" s="5" t="s">
+      <c r="BX1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="BY1" s="5" t="s">
+      <c r="BY1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="BZ1" s="5" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="CA1" s="5" t="s">
+      <c r="CA1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="CB1" s="5" t="s">
+      <c r="CB1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="CC1" s="5" t="s">
+      <c r="CC1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="CD1" s="5" t="s">
+      <c r="CD1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="CE1" s="5" t="s">
+      <c r="CE1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="CF1" s="5" t="s">
+      <c r="CF1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="CG1" s="5" t="s">
+      <c r="CG1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="CH1" s="5" t="s">
+      <c r="CH1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="CI1" s="5" t="s">
+      <c r="CI1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="CJ1" s="5" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="CK1" s="5" t="s">
+      <c r="CK1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="CL1" s="5" t="s">
+      <c r="CL1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="CM1" s="5" t="s">
+      <c r="CM1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="CN1" s="5" t="s">
+      <c r="CN1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="CO1" s="5" t="s">
+      <c r="CO1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="CP1" s="5" t="s">
+      <c r="CP1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="CQ1" s="5" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="CR1" s="5" t="s">
+      <c r="CR1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="CS1" s="5" t="s">
+      <c r="CS1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="CT1" s="5" t="s">
+      <c r="CT1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="CU1" s="5" t="s">
+      <c r="CU1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="CV1" s="5" t="s">
+      <c r="CV1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="CW1" s="5" t="s">
+      <c r="CW1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="CX1" s="5" t="s">
+      <c r="CX1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="CY1" s="5" t="s">
+      <c r="CY1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="CZ1" s="5" t="s">
+      <c r="CZ1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="DA1" s="5" t="s">
+      <c r="DA1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="DB1" s="5" t="s">
+      <c r="DB1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="DC1" s="5" t="s">
+      <c r="DC1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="DD1" s="5" t="s">
+      <c r="DD1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="DE1" s="5" t="s">
+      <c r="DE1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="DF1" s="5" t="s">
+      <c r="DF1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="DG1" s="5" t="s">
+      <c r="DG1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="DH1" s="5" t="s">
+      <c r="DH1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="5" t="s">
+      <c r="DI1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="DJ1" s="5" t="s">
+      <c r="DJ1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="DK1" s="5" t="s">
+      <c r="DK1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="DL1" s="5" t="s">
+      <c r="DL1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="DM1" s="5" t="s">
+      <c r="DM1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="DN1" s="5" t="s">
+      <c r="DN1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="DO1" s="5" t="s">
+      <c r="DO1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="DP1" s="5" t="s">
+      <c r="DP1" s="3" t="s">
         <v>138</v>
       </c>
       <c r="DQ1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="DR1" s="5" t="s">
+      <c r="DR1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="DS1" s="5" t="s">
+      <c r="DS1" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1">
@@ -11016,10 +11017,10 @@
       </c>
     </row>
     <row r="3" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1">
@@ -11387,10 +11388,10 @@
       </c>
     </row>
     <row r="4" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="1">
@@ -11758,10 +11759,10 @@
       </c>
     </row>
     <row r="5" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="1">
@@ -12129,10 +12130,10 @@
       </c>
     </row>
     <row r="6" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="1">
@@ -12500,10 +12501,10 @@
       </c>
     </row>
     <row r="7" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="1">
@@ -12871,10 +12872,10 @@
       </c>
     </row>
     <row r="8" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="1">
@@ -13242,10 +13243,10 @@
       </c>
     </row>
     <row r="9" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="1">
@@ -13613,10 +13614,10 @@
       </c>
     </row>
     <row r="10" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C10" s="1">
@@ -13984,10 +13985,10 @@
       </c>
     </row>
     <row r="11" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C11" s="1">
@@ -14355,10 +14356,10 @@
       </c>
     </row>
     <row r="12" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C12" s="1">
@@ -14726,10 +14727,10 @@
       </c>
     </row>
     <row r="13" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C13" s="1">
@@ -15097,10 +15098,10 @@
       </c>
     </row>
     <row r="14" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C14" s="1">
@@ -15468,10 +15469,10 @@
       </c>
     </row>
     <row r="15" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C15" s="1">
@@ -15839,10 +15840,10 @@
       </c>
     </row>
     <row r="16" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C16" s="1">
@@ -16210,10 +16211,10 @@
       </c>
     </row>
     <row r="17" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C17" s="1">
@@ -16581,10 +16582,10 @@
       </c>
     </row>
     <row r="18" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C18" s="1">
@@ -16952,10 +16953,10 @@
       </c>
     </row>
     <row r="19" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C19" s="1">
@@ -17323,10 +17324,10 @@
       </c>
     </row>
     <row r="20" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C20" s="1">
@@ -17694,10 +17695,10 @@
       </c>
     </row>
     <row r="21" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C21" s="1">
@@ -18065,10 +18066,10 @@
       </c>
     </row>
     <row r="22" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C22" s="1">
@@ -18436,10 +18437,10 @@
       </c>
     </row>
     <row r="23" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C23" s="1">
@@ -18807,10 +18808,10 @@
       </c>
     </row>
     <row r="24" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C24" s="1">
@@ -19178,10 +19179,10 @@
       </c>
     </row>
     <row r="25" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C25" s="1">
